--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32213630-64F6-46A3-8D1B-35E660ED3511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794B37EE-EC68-48BA-909D-D7C81D3CA31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="2475" windowWidth="21600" windowHeight="11790" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="6060" yWindow="2475" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>apriltag信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置电机pwm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~3，对应L1 L2 R1 R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float-&gt;int32 pwm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,15 +433,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,12 +454,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -455,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794B37EE-EC68-48BA-909D-D7C81D3CA31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117B5DF9-6998-4560-9075-699B7EA8B29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="2475" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
@@ -64,11 +64,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0~3，对应L1 L2 R1 R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float-&gt;int32 pwm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~3，对应L1 L2 R1 R2;4代表全部置零</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,13 +436,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117B5DF9-6998-4560-9075-699B7EA8B29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F197B5-B381-4092-AF09-B44263AFBA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="2475" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>0~3，对应L1 L2 R1 R2;4代表全部置零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个编码器的速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,8 +119,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,43 +443,45 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -484,40 +493,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F197B5-B381-4092-AF09-B44263AFBA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A2B341-781F-4924-86E9-2BD0377DA425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="2475" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="6225" yWindow="1305" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>4个编码器的速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置电机pwm(带死区)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
@@ -482,6 +490,20 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A2B341-781F-4924-86E9-2BD0377DA425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B111D0BA-2843-4EB0-B052-D7A14D442651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="1305" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置电机控制器状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8 从低位到高位每一位分别对应L1 L2 R1 R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,17 +460,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -505,6 +517,17 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B111D0BA-2843-4EB0-B052-D7A14D442651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865ACB17-EC0F-4883-BAEA-D770530D9BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="5715" yWindow="2655" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,14 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置电机pwm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float-&gt;int32 pwm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~3，对应L1 L2 R1 R2;4代表全部置零</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,23 +68,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置电机pwm(带死区)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置电机控制器状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uint8 从低位到高位每一位分别对应L1 L2 R1 R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置单个电机pwm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置单个电机pwm(带死区)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置所有电机控制器的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置单个电机控制器的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~3 对应L1 L2 R1 R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float*4 分别代表 kp kd wo b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置单个电机的目标转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float 代表目标转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float-&gt;int32 代表算上死区的pwm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float-&gt;int32 代表pwm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,18 +492,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -493,46 +525,78 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:B5 B6:B7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -577,7 +641,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865ACB17-EC0F-4883-BAEA-D770530D9BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC0FE4F-069D-4894-A060-1C7AB8FE2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="2655" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="12915" yWindow="2745" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置单个电机控制器的参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +121,22 @@
   </si>
   <si>
     <t>float-&gt;int32 代表pwm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置单个电机控制器的参数(使用控制器带宽wc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置单个电机控制器的参数(使用独立的kp和kd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float*3 分别代表 wc wo b0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,15 +504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
@@ -534,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -548,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -564,30 +576,44 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +621,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B4:B5 B6:B7" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC0FE4F-069D-4894-A060-1C7AB8FE2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3AA0D-CA18-43E3-8935-0571ABD2611A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="2745" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="1125" yWindow="2445" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>float*3 分别代表 wc wo b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机遥控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8*3 取值范围都是0~2 分别代表前后,左右,自转；0代表无速度 1代表正 2代表负</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,17 +516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -616,12 +628,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B4:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:B9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3AA0D-CA18-43E3-8935-0571ABD2611A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D383B5A-E2C1-4350-BB18-F32CA316A96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="2445" windowWidth="21600" windowHeight="11790" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="5715" yWindow="5400" windowWidth="21600" windowHeight="11790" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,18 +48,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0~19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apriltag信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~3，对应L1 L2 R1 R2;4代表全部置零</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +142,82 @@
   <si>
     <t>uint8*3 取值范围都是0~2 分别代表前后,左右,自转；0代表无速度 1代表正 2代表负</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未校准地磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未校准陀螺仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀螺仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地磁位姿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6DOF位姿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9DOF位姿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpy位姿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -518,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -549,94 +617,94 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -651,10 +719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -664,7 +732,7 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,25 +740,141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D383B5A-E2C1-4350-BB18-F32CA316A96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA4DF6-5E2F-4C28-B2C2-53261CC3E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="5400" windowWidth="21600" windowHeight="11790" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="210" yWindow="1440" windowWidth="21600" windowHeight="11790" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,34 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机发目标点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float*3 代表目标点的x,y,yaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车身位姿 x y yaw vX vY vYaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标点 格式同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,6 +735,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -719,16 +758,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -877,6 +916,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA4DF6-5E2F-4C28-B2C2-53261CC3E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C783BB7-322A-4BAE-8964-16B4A16BAA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="1440" windowWidth="21600" windowHeight="11790" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4个编码器的速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +241,54 @@
   </si>
   <si>
     <t>目标点 格式同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置LocalPlanner的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float*4 分别代表最大vxy,vYaw,axy,aYaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalPlanner规划出的cmd_vel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp微秒时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9DOF位姿算出的yaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个电机的目标速度m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个编码器的速度m/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,7 +689,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -654,96 +698,107 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -758,10 +813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -786,156 +841,200 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C783BB7-322A-4BAE-8964-16B4A16BAA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DAFFA9-EB8D-483D-BD0D-F627094C636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1440" windowWidth="21600" windowHeight="11790" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>4个编码器的速度m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机发底盘位姿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float*6 代表底盘位姿的x,y,yaw,vX,vY,vYaw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -801,6 +813,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DAFFA9-EB8D-483D-BD0D-F627094C636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98F342-D70E-4A16-B19F-51266D332D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9DOF位姿算出的yaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,6 +297,10 @@
   </si>
   <si>
     <t>float*6 代表底盘位姿的x,y,yaw,vX,vY,vYaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9DOF位姿算出的yaw和加了偏移量之后的yaw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -815,13 +815,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -838,14 +838,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -988,10 +988,10 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -999,7 +999,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98F342-D70E-4A16-B19F-51266D332D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C3828A-F08B-469F-BC8E-16A4C513DDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float*4 分别代表最大vxy,vYaw,axy,aYaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,6 +297,10 @@
   </si>
   <si>
     <t>9DOF位姿算出的yaw和加了偏移量之后的yaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float*5 分别代表最大vxy,vYaw,axy,aYaw和dt_ref</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,18 +810,18 @@
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -985,10 +985,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -999,7 +999,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C3828A-F08B-469F-BC8E-16A4C513DDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9C283-9E3F-4D81-9296-60E12D8F6410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="210" yWindow="1440" windowWidth="21600" windowHeight="11790" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,26 @@
   </si>
   <si>
     <t>float*5 分别代表最大vxy,vYaw,axy,aYaw和dt_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4检测结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四边形检测结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -836,10 +856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,6 +1080,28 @@
         <v>19</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9C283-9E3F-4D81-9296-60E12D8F6410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ACAADA-2742-4BCD-A2BF-C24C5C42C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1440" windowWidth="21600" windowHeight="11790" activeTab="1" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
   <sheets>
     <sheet name="rx" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,22 @@
   </si>
   <si>
     <t>四边形检测结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机发送A4识别结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变长float数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航时的刹车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,6 +860,25 @@
         <v>66</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -858,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73680-5B7C-4D7A-92D1-F593DDD5114D}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ACAADA-2742-4BCD-A2BF-C24C5C42C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4217FFB3-38BB-4F1E-B95C-CAAB521FFB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>导航时的刹车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置舵机角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~1 对应舵机编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float-&gt;uint32 代表角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -860,22 +872,36 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
     </row>

--- a/wireless protocol.xlsx
+++ b/wireless protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCar\RT1064_Smartcar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4217FFB3-38BB-4F1E-B95C-CAAB521FFB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DE596A-17DA-4D33-AF3C-11454253EA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F71549D5-1DBD-4E68-945F-E9B66CB0F06A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,40 @@
   <si>
     <t>float-&gt;uint32 代表角度</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置摄像头参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float-&gt;data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0自动曝光设置      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围1-63 0为关闭。如果自动曝光开启，EXP_TIME命令设置的数据将会变为最大曝光时间，也就是自动曝光时间的上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1曝光时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头收到后会自动计算出最大曝光时间，如果设置过大则设置为计算出来的最大曝光值</t>
+  </si>
+  <si>
+    <t>2图像增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围16-64     增益可以在曝光时间固定的情况下改变图像亮暗程度</t>
   </si>
 </sst>
 </file>
@@ -395,12 +429,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,192 +753,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD7462-81CE-445C-AF32-311D6F19EC16}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="43.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>76</v>
       </c>
     </row>
